--- a/aux/iom_datasets/pnas.1812883116.sd01_basins_discharge_1992_2017.xlsx
+++ b/aux/iom_datasets/pnas.1812883116.sd01_basins_discharge_1992_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/github/imbie_partitioning/aux/iom_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1E9A70-1D93-F440-A644-0C7868984156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5077BC70-4396-1B44-86FE-F35EC10C81C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3585,8 +3585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS374"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView topLeftCell="A152" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -36427,6 +36427,7 @@
       <c r="BH240"/>
     </row>
     <row r="241" spans="2:60" x14ac:dyDescent="0.2">
+      <c r="F241" s="35"/>
       <c r="I241" s="106" t="s">
         <v>250</v>
       </c>
@@ -41895,7 +41896,7 @@
   <dimension ref="A1:AB20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B19"/>
+      <selection activeCell="AB2" sqref="AB2:AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -42211,7 +42212,7 @@
         <v>115.05918713886052</v>
       </c>
       <c r="AB3" s="35">
-        <f t="shared" ref="AB3:AB20" si="0">AVERAGE(B3:AA3)</f>
+        <f t="shared" ref="AB3:AB19" si="0">AVERAGE(B3:AA3)</f>
         <v>115.4393935016067</v>
       </c>
     </row>
@@ -42220,112 +42221,112 @@
         <v>32</v>
       </c>
       <c r="B4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!X155:X160)</f>
-        <v>153.79542880216175</v>
+        <f>SUM(Dataset_S1_PNAS_2018!X155)</f>
+        <v>76.897714401080833</v>
       </c>
       <c r="C4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!Y155:Y160)</f>
-        <v>153.87130826456399</v>
+        <f>SUM(Dataset_S1_PNAS_2018!Y155)</f>
+        <v>76.935654132281954</v>
       </c>
       <c r="D4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!Z155:Z160)</f>
-        <v>153.94718772696626</v>
+        <f>SUM(Dataset_S1_PNAS_2018!Z155)</f>
+        <v>76.973593863483075</v>
       </c>
       <c r="E4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AA155:AA160)</f>
-        <v>154.02306718936848</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AA155)</f>
+        <v>77.011533594684195</v>
       </c>
       <c r="F4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AB155:AB160)</f>
-        <v>154.0989466517708</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AB155)</f>
+        <v>77.049473325885401</v>
       </c>
       <c r="G4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AC155:AC160)</f>
-        <v>155.99606176755029</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AC155)</f>
+        <v>77.998030883775144</v>
       </c>
       <c r="H4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AD155:AD160)</f>
-        <v>157.8931768833298</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AD155)</f>
+        <v>78.946588441664886</v>
       </c>
       <c r="I4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AE155:AE160)</f>
-        <v>156.17107641937164</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AE155)</f>
+        <v>78.085538209685808</v>
       </c>
       <c r="J4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AF155:AF160)</f>
-        <v>154.44897595541349</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AF155)</f>
+        <v>77.22448797770673</v>
       </c>
       <c r="K4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AG155:AG160)</f>
-        <v>152.72687549145533</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AG155)</f>
+        <v>76.363437745727666</v>
       </c>
       <c r="L4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AH155:AH160)</f>
-        <v>152.74811347180562</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AH155)</f>
+        <v>76.402913973110685</v>
       </c>
       <c r="M4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AI155:AI160)</f>
-        <v>152.76935145215589</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AI155)</f>
+        <v>76.442390200493705</v>
       </c>
       <c r="N4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AJ155:AJ160)</f>
-        <v>152.79058943250621</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AJ155)</f>
+        <v>76.481866427876724</v>
       </c>
       <c r="O4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AK155:AK160)</f>
-        <v>152.8118274128565</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AK155)</f>
+        <v>76.521342655259744</v>
       </c>
       <c r="P4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AL155:AL160)</f>
-        <v>152.83306539320677</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AL155)</f>
+        <v>76.560818882642764</v>
       </c>
       <c r="Q4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AM155:AM160)</f>
-        <v>152.50801652706261</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AM155)</f>
+        <v>76.254008263531304</v>
       </c>
       <c r="R4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AN155:AN160)</f>
-        <v>153.27954267481769</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AN155)</f>
+        <v>76.639771337408845</v>
       </c>
       <c r="S4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AO155:AO160)</f>
-        <v>155.0024001616575</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AO155)</f>
+        <v>77.501200080828738</v>
       </c>
       <c r="T4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AP155:AP160)</f>
-        <v>150.89326109859968</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AP155)</f>
+        <v>75.44663054929984</v>
       </c>
       <c r="U4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AQ155:AQ160)</f>
-        <v>158.51535107692717</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AQ155)</f>
+        <v>79.257675538463602</v>
       </c>
       <c r="V4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AR155:AR160)</f>
-        <v>157.07050238393029</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AR155)</f>
+        <v>78.535251191965131</v>
       </c>
       <c r="W4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AS155:AS160)</f>
-        <v>155.62565369093329</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AS155)</f>
+        <v>77.81282684546666</v>
       </c>
       <c r="X4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AT155:AT160)</f>
-        <v>154.18080499793635</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AT155)</f>
+        <v>77.090402498968174</v>
       </c>
       <c r="Y4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AU155:AU160)</f>
-        <v>155.38048955314537</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AU155)</f>
+        <v>77.690244776572698</v>
       </c>
       <c r="Z4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AV155:AV160)</f>
-        <v>152.80899579093253</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AV155)</f>
+        <v>76.404497895466264</v>
       </c>
       <c r="AA4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AW155:AW160)</f>
-        <v>153.83164100195523</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AW155)</f>
+        <v>76.915820500977631</v>
       </c>
       <c r="AB4" s="35">
         <f t="shared" si="0"/>
-        <v>154.23160427970694</v>
+        <v>77.132450545934915</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
@@ -42785,112 +42786,112 @@
         <v>306</v>
       </c>
       <c r="B9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!X99:X115)</f>
-        <v>130.7255740283951</v>
+        <f>SUM(Dataset_S1_PNAS_2018!X99)</f>
+        <v>65.362787014197536</v>
       </c>
       <c r="C9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!Y99:Y115)</f>
-        <v>130.76263030608357</v>
+        <f>SUM(Dataset_S1_PNAS_2018!Y99)</f>
+        <v>65.381315153041768</v>
       </c>
       <c r="D9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!Z99:Z115)</f>
-        <v>130.79968658377203</v>
+        <f>SUM(Dataset_S1_PNAS_2018!Z99)</f>
+        <v>65.399843291886</v>
       </c>
       <c r="E9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AA99:AA115)</f>
-        <v>130.83674286146046</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AA99)</f>
+        <v>65.418371430730218</v>
       </c>
       <c r="F9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AB99:AB115)</f>
-        <v>130.87379913914893</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AB99)</f>
+        <v>65.436899569574464</v>
       </c>
       <c r="G9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AC99:AC115)</f>
-        <v>130.91085541683739</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AC99)</f>
+        <v>65.455427708418696</v>
       </c>
       <c r="H9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AD99:AD115)</f>
-        <v>130.96337743795172</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AD99)</f>
+        <v>65.48168871897586</v>
       </c>
       <c r="I9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AE99:AE115)</f>
-        <v>129.40669599107602</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AE99)</f>
+        <v>64.70334799553801</v>
       </c>
       <c r="J9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AF99:AF115)</f>
-        <v>127.85001454420033</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AF99)</f>
+        <v>63.925007272100153</v>
       </c>
       <c r="K9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AG99:AG115)</f>
-        <v>126.29333309732463</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AG99)</f>
+        <v>63.146666548662303</v>
       </c>
       <c r="L9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AH99:AH115)</f>
-        <v>126.48688847357995</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AH99)</f>
+        <v>63.243444236789969</v>
       </c>
       <c r="M9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AI99:AI115)</f>
-        <v>126.68044384983527</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AI99)</f>
+        <v>63.340221924917621</v>
       </c>
       <c r="N9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AJ99:AJ115)</f>
-        <v>126.87399922609059</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AJ99)</f>
+        <v>63.43699961304528</v>
       </c>
       <c r="O9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AK99:AK115)</f>
-        <v>127.06755460234591</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AK99)</f>
+        <v>63.53377730117294</v>
       </c>
       <c r="P9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AL99:AL115)</f>
-        <v>127.26110997860123</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AL99)</f>
+        <v>63.630554989300606</v>
       </c>
       <c r="Q9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AM99:AM115)</f>
-        <v>127.45466535485654</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AM99)</f>
+        <v>63.727332677428265</v>
       </c>
       <c r="R9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AN99:AN115)</f>
-        <v>129.23152260885732</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AN99)</f>
+        <v>64.615761304428645</v>
       </c>
       <c r="S9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AO99:AO115)</f>
-        <v>133.21302460269465</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AO99)</f>
+        <v>66.606512301347308</v>
       </c>
       <c r="T9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AP99:AP115)</f>
-        <v>130.72685776928171</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AP99)</f>
+        <v>65.36342888464084</v>
       </c>
       <c r="U9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AQ99:AQ115)</f>
-        <v>127.60641986845096</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AQ99)</f>
+        <v>63.803209934225464</v>
       </c>
       <c r="V9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AR99:AR115)</f>
-        <v>126.99801656092171</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AR99)</f>
+        <v>63.499008280460842</v>
       </c>
       <c r="W9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AS99:AS115)</f>
-        <v>126.38961325339247</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AS99)</f>
+        <v>63.19480662669622</v>
       </c>
       <c r="X9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AT99:AT115)</f>
-        <v>126.40112578605628</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AT99)</f>
+        <v>63.20056289302812</v>
       </c>
       <c r="Y9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AU99:AU115)</f>
-        <v>126.39469709486207</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AU99)</f>
+        <v>63.197348547431019</v>
       </c>
       <c r="Z9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AV99:AV115)</f>
-        <v>128.28371310213745</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AV99)</f>
+        <v>64.141856551068727</v>
       </c>
       <c r="AA9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AW99:AW115)</f>
-        <v>128.08834094922784</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AW99)</f>
+        <v>64.044170474613907</v>
       </c>
       <c r="AB9" s="35">
         <f t="shared" si="0"/>
-        <v>128.63771932644005</v>
+        <v>64.31885966322001</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
@@ -42898,112 +42899,112 @@
         <v>314</v>
       </c>
       <c r="B10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!X82:X97)</f>
-        <v>196.6820995599038</v>
+        <f>SUM(Dataset_S1_PNAS_2018!X82:X90)</f>
+        <v>109.63887241094984</v>
       </c>
       <c r="C10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!Y82:Y97)</f>
-        <v>195.40138212572774</v>
+        <f>SUM(Dataset_S1_PNAS_2018!Y82:Y90)</f>
+        <v>109.06291406411722</v>
       </c>
       <c r="D10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!Z82:Z97)</f>
-        <v>194.1206646915517</v>
+        <f>SUM(Dataset_S1_PNAS_2018!Z82:Z90)</f>
+        <v>108.48695571728459</v>
       </c>
       <c r="E10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AA82:AA97)</f>
-        <v>192.83994725737568</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AA82:AA90)</f>
+        <v>107.91099737045195</v>
       </c>
       <c r="F10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AB82:AB97)</f>
-        <v>191.55922982319962</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AB82:AB90)</f>
+        <v>107.33503902361932</v>
       </c>
       <c r="G10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AC82:AC97)</f>
-        <v>190.27851238902358</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AC82:AC90)</f>
+        <v>106.75908067678667</v>
       </c>
       <c r="H10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AD82:AD97)</f>
-        <v>188.99779495484756</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AD82:AD90)</f>
+        <v>106.18312232995405</v>
       </c>
       <c r="I10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AE82:AE97)</f>
-        <v>186.5662782278367</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AE82:AE90)</f>
+        <v>104.77736380431816</v>
       </c>
       <c r="J10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AF82:AF97)</f>
-        <v>184.13476150082587</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AF82:AF90)</f>
+        <v>103.37160527868227</v>
       </c>
       <c r="K10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AG82:AG97)</f>
-        <v>181.70324477381504</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AG82:AG90)</f>
+        <v>101.96584675304638</v>
       </c>
       <c r="L10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AH82:AH97)</f>
-        <v>179.97464778709235</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AH82:AH90)</f>
+        <v>101.14979930121312</v>
       </c>
       <c r="M10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AI82:AI97)</f>
-        <v>178.24605080036966</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AI82:AI90)</f>
+        <v>100.33375184937984</v>
       </c>
       <c r="N10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AJ82:AJ97)</f>
-        <v>176.51745381364697</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AJ82:AJ90)</f>
+        <v>99.517704397546581</v>
       </c>
       <c r="O10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AK82:AK97)</f>
-        <v>174.78885682692433</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AK82:AK90)</f>
+        <v>98.70165694571331</v>
       </c>
       <c r="P10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AL82:AL97)</f>
-        <v>173.06025984020164</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AL82:AL90)</f>
+        <v>97.88560949388004</v>
       </c>
       <c r="Q10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AM82:AM97)</f>
-        <v>171.33166285347897</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AM82:AM90)</f>
+        <v>97.069562042046783</v>
       </c>
       <c r="R10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AN82:AN97)</f>
-        <v>169.72924575886307</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AN82:AN90)</f>
+        <v>96.316604536266894</v>
       </c>
       <c r="S10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AO82:AO97)</f>
-        <v>166.60326036744166</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AO82:AO90)</f>
+        <v>94.510903468415023</v>
       </c>
       <c r="T10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AP82:AP97)</f>
-        <v>167.40735303746999</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AP82:AP90)</f>
+        <v>95.256542476512081</v>
       </c>
       <c r="U10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AQ82:AQ97)</f>
-        <v>166.58043266289891</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AQ82:AQ90)</f>
+        <v>94.752495721907906</v>
       </c>
       <c r="V10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AR82:AR97)</f>
-        <v>165.86536409418522</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AR82:AR90)</f>
+        <v>94.3603007731611</v>
       </c>
       <c r="W10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AS82:AS97)</f>
-        <v>165.15029552547148</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AS82:AS90)</f>
+        <v>93.968105824414309</v>
       </c>
       <c r="X10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AT82:AT97)</f>
-        <v>164.68886732711741</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AT82:AT90)</f>
+        <v>93.702731060847313</v>
       </c>
       <c r="Y10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AU82:AU97)</f>
-        <v>172.27619625935358</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AU82:AU90)</f>
+        <v>97.326089431549917</v>
       </c>
       <c r="Z10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AV82:AV97)</f>
-        <v>171.95929796818021</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AV82:AV90)</f>
+        <v>97.466040141080683</v>
       </c>
       <c r="AA10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AW82:AW97)</f>
-        <v>171.25022272791267</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AW82:AW90)</f>
+        <v>97.230805532434033</v>
       </c>
       <c r="AB10" s="35">
         <f t="shared" si="0"/>
-        <v>178.37359165210449</v>
+        <v>100.5784807855992</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
@@ -43463,112 +43464,112 @@
         <v>301</v>
       </c>
       <c r="B15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!X9:X35)</f>
-        <v>162.90852100082807</v>
+        <f>SUM(Dataset_S1_PNAS_2018!X9:X12,Dataset_S1_PNAS_2018!X27:X30)</f>
+        <v>138.05863794804827</v>
       </c>
       <c r="C15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!Y9:Y35)</f>
-        <v>163.54845653562433</v>
+        <f>SUM(Dataset_S1_PNAS_2018!Y9:Y12,Dataset_S1_PNAS_2018!Y27:Y30)</f>
+        <v>138.4966001344952</v>
       </c>
       <c r="D15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!Z9:Z35)</f>
-        <v>164.18839207042055</v>
+        <f>SUM(Dataset_S1_PNAS_2018!Z9:Z12,Dataset_S1_PNAS_2018!Z27:Z30)</f>
+        <v>138.93456232094212</v>
       </c>
       <c r="E15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AA9:AA35)</f>
-        <v>164.16696480605572</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AA9:AA12,Dataset_S1_PNAS_2018!AA27:AA30)</f>
+        <v>139.04184310780846</v>
       </c>
       <c r="F15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AB9:AB35)</f>
-        <v>166.1993527797861</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AB9:AB12,Dataset_S1_PNAS_2018!AB27:AB30)</f>
+        <v>141.2029391327701</v>
       </c>
       <c r="G15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AC9:AC35)</f>
-        <v>168.0902584474731</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AC9:AC12,Dataset_S1_PNAS_2018!AC27:AC30)</f>
+        <v>142.9330119913711</v>
       </c>
       <c r="H15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AD9:AD35)</f>
-        <v>169.98116411516011</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AD9:AD12,Dataset_S1_PNAS_2018!AD27:AD30)</f>
+        <v>144.66308484997214</v>
       </c>
       <c r="I15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AE9:AE35)</f>
-        <v>172.15044512397776</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AE9:AE12,Dataset_S1_PNAS_2018!AE27:AE30)</f>
+        <v>146.26303304970378</v>
       </c>
       <c r="J15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AF9:AF35)</f>
-        <v>173.1027261327954</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AF9:AF12,Dataset_S1_PNAS_2018!AF27:AF30)</f>
+        <v>147.2544812494354</v>
       </c>
       <c r="K15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AG9:AG35)</f>
-        <v>169.93143669716855</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AG9:AG12,Dataset_S1_PNAS_2018!AG27:AG30)</f>
+        <v>145.84263700472258</v>
       </c>
       <c r="L15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AH9:AH35)</f>
-        <v>175.44526186712875</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AH9:AH12,Dataset_S1_PNAS_2018!AH27:AH30)</f>
+        <v>148.68571643140098</v>
       </c>
       <c r="M15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AI9:AI35)</f>
-        <v>181.0064870370889</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AI9:AI12,Dataset_S1_PNAS_2018!AI27:AI30)</f>
+        <v>151.55249585807942</v>
       </c>
       <c r="N15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AJ9:AJ35)</f>
-        <v>188.87052060704903</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AJ9:AJ12,Dataset_S1_PNAS_2018!AJ27:AJ30)</f>
+        <v>155.57067948475782</v>
       </c>
       <c r="O15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AK9:AK35)</f>
-        <v>189.6243995770092</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AK9:AK12,Dataset_S1_PNAS_2018!AK27:AK30)</f>
+        <v>156.03378581143622</v>
       </c>
       <c r="P15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AL9:AL35)</f>
-        <v>191.70550311122707</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AL9:AL12,Dataset_S1_PNAS_2018!AL27:AL30)</f>
+        <v>157.38883071444468</v>
       </c>
       <c r="Q15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AM9:AM35)</f>
-        <v>193.96859333871461</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AM9:AM12,Dataset_S1_PNAS_2018!AM27:AM30)</f>
+        <v>158.56425830752232</v>
       </c>
       <c r="R15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AN9:AN35)</f>
-        <v>193.57525505007655</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AN9:AN12,Dataset_S1_PNAS_2018!AN27:AN30)</f>
+        <v>158.69632535465837</v>
       </c>
       <c r="S15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AO9:AO35)</f>
-        <v>195.70467534781523</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AO9:AO12,Dataset_S1_PNAS_2018!AO27:AO30)</f>
+        <v>160.13847603841714</v>
       </c>
       <c r="T15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AP9:AP35)</f>
-        <v>197.74686722135536</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AP9:AP12,Dataset_S1_PNAS_2018!AP27:AP30)</f>
+        <v>161.15871078472898</v>
       </c>
       <c r="U15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AQ9:AQ35)</f>
-        <v>199.6824103569644</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AQ9:AQ12,Dataset_S1_PNAS_2018!AQ27:AQ30)</f>
+        <v>162.07723379310988</v>
       </c>
       <c r="V15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AR9:AR35)</f>
-        <v>201.50368203516254</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AR9:AR12,Dataset_S1_PNAS_2018!AR27:AR30)</f>
+        <v>163.21972921017206</v>
       </c>
       <c r="W15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AS9:AS35)</f>
-        <v>203.15197771336068</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AS9:AS12,Dataset_S1_PNAS_2018!AS27:AS30)</f>
+        <v>164.27573662723427</v>
       </c>
       <c r="X15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AT9:AT35)</f>
-        <v>205.98758076494673</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AT9:AT12,Dataset_S1_PNAS_2018!AT27:AT30)</f>
+        <v>165.9347574532126</v>
       </c>
       <c r="Y15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AU9:AU35)</f>
-        <v>202.60710168159468</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AU9:AU12,Dataset_S1_PNAS_2018!AU27:AU30)</f>
+        <v>164.35663582404356</v>
       </c>
       <c r="Z15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AV9:AV35)</f>
-        <v>200.13132003951509</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AV9:AV12,Dataset_S1_PNAS_2018!AV27:AV30)</f>
+        <v>163.55359770472492</v>
       </c>
       <c r="AA15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AW9:AW35)</f>
-        <v>202.5561185333149</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AW9:AW12,Dataset_S1_PNAS_2018!AW27:AW30)</f>
+        <v>165.0787039970063</v>
       </c>
       <c r="AB15" s="35">
         <f t="shared" si="0"/>
-        <v>184.5205950766005</v>
+        <v>153.03755785323918</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
@@ -43689,112 +43690,112 @@
         <v>303</v>
       </c>
       <c r="B17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!X49:X59)</f>
-        <v>305.86709025494622</v>
+        <f>SUM(Dataset_S1_PNAS_2018!X49)</f>
+        <v>152.93354512747314</v>
       </c>
       <c r="C17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!Y49:Y59)</f>
-        <v>305.93748361548967</v>
+        <f>SUM(Dataset_S1_PNAS_2018!Y49)</f>
+        <v>152.96874180774483</v>
       </c>
       <c r="D17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!Z49:Z59)</f>
-        <v>306.007876976033</v>
+        <f>SUM(Dataset_S1_PNAS_2018!Z49)</f>
+        <v>153.00393848801653</v>
       </c>
       <c r="E17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AA49:AA59)</f>
-        <v>306.0782703365764</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AA49)</f>
+        <v>153.0391351682882</v>
       </c>
       <c r="F17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AB49:AB59)</f>
-        <v>306.14866369711967</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AB49)</f>
+        <v>153.07433184855986</v>
       </c>
       <c r="G17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AC49:AC59)</f>
-        <v>302.76370582406588</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AC49)</f>
+        <v>151.38185291203294</v>
       </c>
       <c r="H17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AD49:AD59)</f>
-        <v>299.37874795101197</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AD49)</f>
+        <v>149.68937397550602</v>
       </c>
       <c r="I17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AE49:AE59)</f>
-        <v>300.83612843469632</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AE49)</f>
+        <v>150.41806421734816</v>
       </c>
       <c r="J17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AF49:AF59)</f>
-        <v>302.29350891838055</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AF49)</f>
+        <v>151.1467544591903</v>
       </c>
       <c r="K17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AG49:AG59)</f>
-        <v>303.7508894020649</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AG49)</f>
+        <v>151.87544470103245</v>
       </c>
       <c r="L17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AH49:AH59)</f>
-        <v>303.34109397385441</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AH49)</f>
+        <v>151.67054698692721</v>
       </c>
       <c r="M17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AI49:AI59)</f>
-        <v>302.93129854564398</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AI49)</f>
+        <v>151.46564927282199</v>
       </c>
       <c r="N17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AJ49:AJ59)</f>
-        <v>302.5215031174335</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AJ49)</f>
+        <v>151.26075155871678</v>
       </c>
       <c r="O17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AK49:AK59)</f>
-        <v>302.11170768922307</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AK49)</f>
+        <v>151.05585384461153</v>
       </c>
       <c r="P17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AL49:AL59)</f>
-        <v>301.70191226101264</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AL49)</f>
+        <v>150.85095613050632</v>
       </c>
       <c r="Q17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AM49:AM59)</f>
-        <v>301.29211683280215</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AM49)</f>
+        <v>150.6460584164011</v>
       </c>
       <c r="R17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AN49:AN59)</f>
-        <v>298.78892332419764</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AN49)</f>
+        <v>149.39446166209885</v>
       </c>
       <c r="S17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AO49:AO59)</f>
-        <v>305.39220557421385</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AO49)</f>
+        <v>152.69610278710692</v>
       </c>
       <c r="T17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AP49:AP59)</f>
-        <v>297.90193297639041</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AP49)</f>
+        <v>148.95096648819521</v>
       </c>
       <c r="U17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AQ49:AQ59)</f>
-        <v>300.88050333192717</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AQ49)</f>
+        <v>150.44025166596356</v>
       </c>
       <c r="V17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AR49:AR59)</f>
-        <v>298.86790932606573</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AR49)</f>
+        <v>149.43395466303286</v>
       </c>
       <c r="W17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AS49:AS59)</f>
-        <v>300.22756324975569</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AS49)</f>
+        <v>150.11378162487787</v>
       </c>
       <c r="X17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AT49:AT59)</f>
-        <v>299.39302066288286</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AT49)</f>
+        <v>149.69651033144143</v>
       </c>
       <c r="Y17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AU49:AU59)</f>
-        <v>297.97221978941718</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AU49)</f>
+        <v>148.98610989470859</v>
       </c>
       <c r="Z17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AV49:AV59)</f>
-        <v>295.10492322012601</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AV49)</f>
+        <v>147.55246161006303</v>
       </c>
       <c r="AA17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!AW49:AW59)</f>
-        <v>301.32070471377136</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AW49)</f>
+        <v>150.66035235688565</v>
       </c>
       <c r="AB17" s="35">
         <f t="shared" si="0"/>
-        <v>301.87738092304238</v>
+        <v>150.93869046152119</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.15">
@@ -43802,112 +43803,112 @@
         <v>313</v>
       </c>
       <c r="B18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!X185:X190)</f>
-        <v>222.914950881051</v>
+        <f>SUM(Dataset_S1_PNAS_2018!X185)</f>
+        <v>111.4574754405255</v>
       </c>
       <c r="C18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!Y185:Y190)</f>
-        <v>223.11917787190106</v>
+        <f>SUM(Dataset_S1_PNAS_2018!Y185)</f>
+        <v>111.55958893595054</v>
       </c>
       <c r="D18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!Z185:Z190)</f>
-        <v>223.32340486275118</v>
+        <f>SUM(Dataset_S1_PNAS_2018!Z185)</f>
+        <v>111.66170243137559</v>
       </c>
       <c r="E18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AA185:AA190)</f>
-        <v>223.52763185360124</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AA185)</f>
+        <v>111.76381592680062</v>
       </c>
       <c r="F18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AB185:AB190)</f>
-        <v>223.7318588444513</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AB185)</f>
+        <v>111.86592942222566</v>
       </c>
       <c r="G18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AC185:AC190)</f>
-        <v>223.93608583530141</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AC185)</f>
+        <v>111.96804291765071</v>
       </c>
       <c r="H18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AD185:AD190)</f>
-        <v>224.14031282615153</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AD185)</f>
+        <v>112.07015641307575</v>
       </c>
       <c r="I18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AE185:AE190)</f>
-        <v>221.11597092116116</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AE185)</f>
+        <v>110.55798546058058</v>
       </c>
       <c r="J18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AF185:AF190)</f>
-        <v>218.09162901617086</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AF185)</f>
+        <v>109.04581450808541</v>
       </c>
       <c r="K18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AG185:AG190)</f>
-        <v>215.06728711118052</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AG185)</f>
+        <v>107.53364355559027</v>
       </c>
       <c r="L18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AH185:AH190)</f>
-        <v>214.49540382271869</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AH185)</f>
+        <v>107.24770191135934</v>
       </c>
       <c r="M18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AI185:AI190)</f>
-        <v>213.9235205342568</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AI185)</f>
+        <v>106.9617602671284</v>
       </c>
       <c r="N18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AJ185:AJ190)</f>
-        <v>213.35163724579496</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AJ185)</f>
+        <v>106.67581862289748</v>
       </c>
       <c r="O18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AK185:AK190)</f>
-        <v>212.7797539573331</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AK185)</f>
+        <v>106.38987697866655</v>
       </c>
       <c r="P18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AL185:AL190)</f>
-        <v>212.20787066887124</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AL185)</f>
+        <v>106.10393533443563</v>
       </c>
       <c r="Q18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AM185:AM190)</f>
-        <v>212.08574062536096</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AM185)</f>
+        <v>106.04287031268048</v>
       </c>
       <c r="R18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AN185:AN190)</f>
-        <v>212.72083702994024</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AN185)</f>
+        <v>106.36041851497014</v>
       </c>
       <c r="S18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AO185:AO190)</f>
-        <v>212.71024441840962</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AO185)</f>
+        <v>106.35512220920482</v>
       </c>
       <c r="T18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AP185:AP190)</f>
-        <v>212.44374417561474</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AP185)</f>
+        <v>106.22187208780736</v>
       </c>
       <c r="U18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AQ185:AQ190)</f>
-        <v>211.93880112857201</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AQ185)</f>
+        <v>105.969400564286</v>
       </c>
       <c r="V18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AR185:AR190)</f>
-        <v>211.43385808152934</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AR185)</f>
+        <v>105.71692904076465</v>
       </c>
       <c r="W18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AS185:AS190)</f>
-        <v>210.92891503448664</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AS185)</f>
+        <v>105.46445751724332</v>
       </c>
       <c r="X18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AT185:AT190)</f>
-        <v>210.42397198744396</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AT185)</f>
+        <v>105.21198599372198</v>
       </c>
       <c r="Y18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AU185:AU190)</f>
-        <v>211.46425205222587</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AU185)</f>
+        <v>105.73212602611294</v>
       </c>
       <c r="Z18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AV185:AV190)</f>
-        <v>215.7273806646154</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AV185)</f>
+        <v>107.8636903323077</v>
       </c>
       <c r="AA18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!AW185:AW190)</f>
-        <v>216.42500616373371</v>
+        <f>SUM(Dataset_S1_PNAS_2018!AW185)</f>
+        <v>108.21250308186686</v>
       </c>
       <c r="AB18" s="35">
         <f t="shared" si="0"/>
-        <v>216.30881721594727</v>
+        <v>108.15440860797364</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.15">
@@ -44036,7 +44037,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -44075,8 +44076,8 @@
         <v>32</v>
       </c>
       <c r="B4" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!G155:G160)</f>
-        <v>150.61999999999998</v>
+        <f>SUM(Dataset_S1_PNAS_2018!G155)</f>
+        <v>75.31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -44120,8 +44121,8 @@
         <v>306</v>
       </c>
       <c r="B9" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!G99:G115)</f>
-        <v>127.60000000000002</v>
+        <f>SUM(Dataset_S1_PNAS_2018!G99)</f>
+        <v>63.800000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -44129,8 +44130,8 @@
         <v>314</v>
       </c>
       <c r="B10" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!G82:G97)</f>
-        <v>237.51779999999999</v>
+        <f>SUM(Dataset_S1_PNAS_2018!G82:G90)</f>
+        <v>130.33539999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -44174,8 +44175,8 @@
         <v>301</v>
       </c>
       <c r="B15" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!G9:G35)</f>
-        <v>152.47709999999998</v>
+        <f>SUM(Dataset_S1_PNAS_2018!G9:G12,Dataset_S1_PNAS_2018!G27:G30)</f>
+        <v>131.309</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -44192,8 +44193,8 @@
         <v>303</v>
       </c>
       <c r="B17" s="35">
-        <f>SUM(Dataset_S1_PNAS_2018!G49:G59)</f>
-        <v>298.84100000000001</v>
+        <f>SUM(Dataset_S1_PNAS_2018!G49)</f>
+        <v>149.4205</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -44201,8 +44202,8 @@
         <v>313</v>
       </c>
       <c r="B18" s="68">
-        <f>SUM(Dataset_S1_PNAS_2018!G185:G190)</f>
-        <v>220.26000000000002</v>
+        <f>SUM(Dataset_S1_PNAS_2018!G185)</f>
+        <v>110.13</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
